--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H2">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I2">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J2">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N2">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O2">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P2">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q2">
-        <v>584.4629565179699</v>
+        <v>683.8986484267612</v>
       </c>
       <c r="R2">
-        <v>584.4629565179699</v>
+        <v>6155.08783584085</v>
       </c>
       <c r="S2">
-        <v>0.1724031583372719</v>
+        <v>0.1793808230459464</v>
       </c>
       <c r="T2">
-        <v>0.1724031583372719</v>
+        <v>0.2184410003928442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H3">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I3">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J3">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N3">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P3">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q3">
-        <v>50.87255591858954</v>
+        <v>63.990920574834</v>
       </c>
       <c r="R3">
-        <v>50.87255591858954</v>
+        <v>575.918285173506</v>
       </c>
       <c r="S3">
-        <v>0.01500623643507961</v>
+        <v>0.01678427648100663</v>
       </c>
       <c r="T3">
-        <v>0.01500623643507961</v>
+        <v>0.0204390529774862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H4">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I4">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J4">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N4">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O4">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P4">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q4">
-        <v>8.200503969794617</v>
+        <v>9.510622793401556</v>
       </c>
       <c r="R4">
-        <v>8.200503969794617</v>
+        <v>85.595605140614</v>
       </c>
       <c r="S4">
-        <v>0.002418960463761162</v>
+        <v>0.00249455580630908</v>
       </c>
       <c r="T4">
-        <v>0.002418960463761162</v>
+        <v>0.003037745376641292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H5">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I5">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J5">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N5">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O5">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P5">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q5">
-        <v>4.32495713417046</v>
+        <v>7.577725210804667</v>
       </c>
       <c r="R5">
-        <v>4.32495713417046</v>
+        <v>68.19952689724201</v>
       </c>
       <c r="S5">
-        <v>0.001275763093775094</v>
+        <v>0.001987573141513127</v>
       </c>
       <c r="T5">
-        <v>0.001275763093775094</v>
+        <v>0.002420367227743561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H6">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I6">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J6">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N6">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O6">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P6">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q6">
-        <v>29.53917710707395</v>
+        <v>33.14421995236867</v>
       </c>
       <c r="R6">
-        <v>29.53917710707395</v>
+        <v>198.865319714212</v>
       </c>
       <c r="S6">
-        <v>0.008713379301716291</v>
+        <v>0.008693448170936794</v>
       </c>
       <c r="T6">
-        <v>0.008713379301716291</v>
+        <v>0.007057631107855809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J7">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N7">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O7">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P7">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q7">
-        <v>536.2726828163436</v>
+        <v>619.1427058582917</v>
       </c>
       <c r="R7">
-        <v>536.2726828163436</v>
+        <v>5572.284352724625</v>
       </c>
       <c r="S7">
-        <v>0.1581881335959348</v>
+        <v>0.1623958877755384</v>
       </c>
       <c r="T7">
-        <v>0.1581881335959348</v>
+        <v>0.1977575951710647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J8">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N8">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P8">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q8">
-        <v>46.67800027348298</v>
+        <v>57.931846781985</v>
       </c>
       <c r="R8">
-        <v>46.67800027348298</v>
+        <v>521.386621037865</v>
       </c>
       <c r="S8">
-        <v>0.01376893878777257</v>
+        <v>0.01519503274385693</v>
       </c>
       <c r="T8">
-        <v>0.01376893878777257</v>
+        <v>0.01850375138885359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J9">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N9">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O9">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P9">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q9">
-        <v>7.524354136193443</v>
+        <v>8.610095581048332</v>
       </c>
       <c r="R9">
-        <v>7.524354136193443</v>
+        <v>77.490860229435</v>
       </c>
       <c r="S9">
-        <v>0.002219511780962598</v>
+        <v>0.002258355145730509</v>
       </c>
       <c r="T9">
-        <v>0.002219511780962598</v>
+        <v>0.00275011201810208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J10">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N10">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O10">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P10">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q10">
-        <v>3.96835477687963</v>
+        <v>6.860217229645</v>
       </c>
       <c r="R10">
-        <v>3.96835477687963</v>
+        <v>61.74195506680501</v>
       </c>
       <c r="S10">
-        <v>0.001170573582648968</v>
+        <v>0.001799376875153288</v>
       </c>
       <c r="T10">
-        <v>0.001170573582648968</v>
+        <v>0.002191191221101471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J11">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N11">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O11">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P11">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q11">
-        <v>27.10360610323918</v>
+        <v>30.005911068955</v>
       </c>
       <c r="R11">
-        <v>27.10360610323918</v>
+        <v>180.03546641373</v>
       </c>
       <c r="S11">
-        <v>0.007994941753650944</v>
+        <v>0.007870296331443963</v>
       </c>
       <c r="T11">
-        <v>0.007994941753650944</v>
+        <v>0.00638936899658963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H12">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I12">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J12">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N12">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O12">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P12">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q12">
-        <v>132.5061547595399</v>
+        <v>155.8471235361639</v>
       </c>
       <c r="R12">
-        <v>132.5061547595399</v>
+        <v>1402.624111825475</v>
       </c>
       <c r="S12">
-        <v>0.03908627454470613</v>
+        <v>0.04087738052059359</v>
       </c>
       <c r="T12">
-        <v>0.03908627454470613</v>
+        <v>0.04977843084190936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H13">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I13">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J13">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N13">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P13">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q13">
-        <v>11.53353979475809</v>
+        <v>14.582279007219</v>
       </c>
       <c r="R13">
-        <v>11.53353979475809</v>
+        <v>131.240511064971</v>
       </c>
       <c r="S13">
-        <v>0.003402129536611221</v>
+        <v>0.003824808275638368</v>
       </c>
       <c r="T13">
-        <v>0.003402129536611221</v>
+        <v>0.004657660344368425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H14">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I14">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J14">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N14">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O14">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P14">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q14">
-        <v>1.85917214429041</v>
+        <v>2.167284887605444</v>
       </c>
       <c r="R14">
-        <v>1.85917214429041</v>
+        <v>19.505563988449</v>
       </c>
       <c r="S14">
-        <v>0.0005484131132585988</v>
+        <v>0.0005684604697026821</v>
       </c>
       <c r="T14">
-        <v>0.0005484131132585988</v>
+        <v>0.0006922427468951566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H15">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I15">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J15">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N15">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O15">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P15">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q15">
-        <v>0.9805299599533251</v>
+        <v>1.726815339916333</v>
       </c>
       <c r="R15">
-        <v>0.9805299599533251</v>
+        <v>15.541338059247</v>
       </c>
       <c r="S15">
-        <v>0.0002892338343346735</v>
+        <v>0.0004529290380016443</v>
       </c>
       <c r="T15">
-        <v>0.0002892338343346735</v>
+        <v>0.0005515543439261942</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H16">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I16">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J16">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N16">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O16">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P16">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q16">
-        <v>6.69695611940644</v>
+        <v>7.552919359190333</v>
       </c>
       <c r="R16">
-        <v>6.69695611940644</v>
+        <v>45.317516155142</v>
       </c>
       <c r="S16">
-        <v>0.001975448355376295</v>
+        <v>0.001981066776733534</v>
       </c>
       <c r="T16">
-        <v>0.001975448355376295</v>
+        <v>0.001608296067946488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H17">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I17">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J17">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N17">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O17">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P17">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q17">
-        <v>150.9979620915733</v>
+        <v>168.4953690465833</v>
       </c>
       <c r="R17">
-        <v>150.9979620915733</v>
+        <v>1516.45832141925</v>
       </c>
       <c r="S17">
-        <v>0.04454093330768431</v>
+        <v>0.04419490819076152</v>
       </c>
       <c r="T17">
-        <v>0.04454093330768431</v>
+        <v>0.05381835022011851</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H18">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I18">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J18">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N18">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P18">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q18">
-        <v>13.14309518581174</v>
+        <v>15.76574804277</v>
       </c>
       <c r="R18">
-        <v>13.14309518581174</v>
+        <v>141.89173238493</v>
       </c>
       <c r="S18">
-        <v>0.003876911436544858</v>
+        <v>0.004135222180001077</v>
       </c>
       <c r="T18">
-        <v>0.003876911436544858</v>
+        <v>0.00503566688182015</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H19">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I19">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J19">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N19">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O19">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P19">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q19">
-        <v>2.118627662803421</v>
+        <v>2.343177459296666</v>
       </c>
       <c r="R19">
-        <v>2.118627662803421</v>
+        <v>21.08859713367</v>
       </c>
       <c r="S19">
-        <v>0.0006249465365334787</v>
+        <v>0.0006145956014948287</v>
       </c>
       <c r="T19">
-        <v>0.0006249465365334787</v>
+        <v>0.0007484238044397019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H20">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I20">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J20">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N20">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O20">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P20">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q20">
-        <v>1.117367159218878</v>
+        <v>1.86696027089</v>
       </c>
       <c r="R20">
-        <v>1.117367159218878</v>
+        <v>16.80264243801</v>
       </c>
       <c r="S20">
-        <v>0.0003295976676081388</v>
+        <v>0.0004896878664064145</v>
       </c>
       <c r="T20">
-        <v>0.0003295976676081388</v>
+        <v>0.0005963174078572266</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H21">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I21">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J21">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N21">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O21">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P21">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q21">
-        <v>7.631545327703045</v>
+        <v>8.165899414309999</v>
       </c>
       <c r="R21">
-        <v>7.631545327703045</v>
+        <v>48.99539648585999</v>
       </c>
       <c r="S21">
-        <v>0.002251130722344767</v>
+        <v>0.002141846253416315</v>
       </c>
       <c r="T21">
-        <v>0.002251130722344767</v>
+        <v>0.001738822208302932</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H22">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I22">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J22">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N22">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O22">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P22">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q22">
-        <v>1520.744108818838</v>
+        <v>1639.533311254271</v>
       </c>
       <c r="R22">
-        <v>1520.744108818838</v>
+        <v>9837.199867525625</v>
       </c>
       <c r="S22">
-        <v>0.448584609955698</v>
+        <v>0.4300357011387372</v>
       </c>
       <c r="T22">
-        <v>0.448584609955698</v>
+        <v>0.3491173217080657</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H23">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I23">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J23">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N23">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P23">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q23">
-        <v>132.3679094645467</v>
+        <v>153.4075935690375</v>
       </c>
       <c r="R23">
-        <v>132.3679094645467</v>
+        <v>920.4455614142249</v>
       </c>
       <c r="S23">
-        <v>0.03904549535550981</v>
+        <v>0.04023751247237468</v>
       </c>
       <c r="T23">
-        <v>0.03904549535550981</v>
+        <v>0.03266615434335375</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H24">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I24">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J24">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N24">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O24">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P24">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q24">
-        <v>21.33731139387827</v>
+        <v>22.80013700337917</v>
       </c>
       <c r="R24">
-        <v>21.33731139387827</v>
+        <v>136.800822020275</v>
       </c>
       <c r="S24">
-        <v>0.006294017154904785</v>
+        <v>0.005980282824998861</v>
       </c>
       <c r="T24">
-        <v>0.006294017154904785</v>
+        <v>0.004854993009631029</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H25">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I25">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J25">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N25">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O25">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P25">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q25">
-        <v>11.25332753656135</v>
+        <v>18.1663363938875</v>
       </c>
       <c r="R25">
-        <v>11.25332753656135</v>
+        <v>108.998018363325</v>
       </c>
       <c r="S25">
-        <v>0.003319473351511404</v>
+        <v>0.004764876172165801</v>
       </c>
       <c r="T25">
-        <v>0.003319473351511404</v>
+        <v>0.003868285361173838</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H26">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I26">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J26">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N26">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O26">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P26">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q26">
-        <v>76.85949821792998</v>
+        <v>79.45775709961251</v>
       </c>
       <c r="R26">
-        <v>76.85949821792998</v>
+        <v>317.83102839845</v>
       </c>
       <c r="S26">
-        <v>0.02267178799479936</v>
+        <v>0.02084109670153817</v>
       </c>
       <c r="T26">
-        <v>0.02267178799479936</v>
+        <v>0.01127966483190884</v>
       </c>
     </row>
   </sheetData>
